--- a/biology/Médecine/1896_en_santé_et_médecine/1896_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1896_en_santé_et_médecine/1896_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1896_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1896_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1896 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1896_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1896_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,22 +523,20 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le terme de « psychologie expérimentale » est consacré en France lors de la création d'un des premiers « laboratoires de psychologie et de linguistique expérimentale », à Rennes, par le philosophe et psychologue Benjamin Bourdon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le terme de « psychologie expérimentale » est consacré en France lors de la création d'un des premiers « laboratoires de psychologie et de linguistique expérimentale », à Rennes, par le philosophe et psychologue Benjamin Bourdon.
 5 février : Sigmund Freud envoie deux articles qui parlent pour la première fois de « psycho-analyse ». L'un sera publié en français le 30 mars, l'autre en allemand le 15 mai.
-10 février : Arsène d’Arsonval présente devant l’Académie des sciences une note préparée par Albert Londe, « Application de la méthode de Röntgen ». La « méthode de Röntgen » (l'utilisation des rayons X) date alors de quelques mois à peine[2]. Le 4 juin, le Dr Édouard Brissaud utilise la méthode, avec Londe, pour localiser un projectile dans la tête de quelqu'un[3],[4].
-26 février : création de l’Association féminine norvégienne de Santé Publique (no) (NKS)[5].
-4-23 juillet : le docteur Victor Despeignes entreprend à Lyon de traiter un cancer de l'estomac par des rayons X. Il réalise ainsi le premier essai de radiothérapie[6].
-10 décembre : la Gazette de Turin présente le sphygmomanomètre inventé par le médecin italien Scipione Riva-Rocci pour mesurer la tension artérielle[7].
-Henry Koplik décrit le signe de Koplik, signe précoce caractéristique de la rougeole[8].
-Le docteur Fernand Widal développe une technique de diagnostic de la fièvre typhoïde (test de Widal)[9].
-Première description du syndrome de Marfan[10].
-Le psychiatre autrichien Richard von Krafft-Ebing emploie dans la dixième édition de son ouvrage Psychopathia sexualis l’expression latine pædophilia erotica pour désigner la  « pédophilie érotique »[11].
-Épidémies et catastrophes
-Été : une vague de chaleur de dix jours atteint New York, tuant près de 1 500 personnes. Theodore Roosevelt, alors maire de la ville, fait distribuer de la glace aux pauvres[12].
-Fièvre jaune à Cuba. L'hôpital espagnol de La Havane a plus de cent patients : « personne n'allait jamais mieux, on commençait par se replier, et quand les pieds et la tête se touchaient, c'était la mort[13] ».
-Fin de l'épidémie de choléra en Hongrie[14].</t>
+10 février : Arsène d’Arsonval présente devant l’Académie des sciences une note préparée par Albert Londe, « Application de la méthode de Röntgen ». La « méthode de Röntgen » (l'utilisation des rayons X) date alors de quelques mois à peine. Le 4 juin, le Dr Édouard Brissaud utilise la méthode, avec Londe, pour localiser un projectile dans la tête de quelqu'un,.
+26 février : création de l’Association féminine norvégienne de Santé Publique (no) (NKS).
+4-23 juillet : le docteur Victor Despeignes entreprend à Lyon de traiter un cancer de l'estomac par des rayons X. Il réalise ainsi le premier essai de radiothérapie.
+10 décembre : la Gazette de Turin présente le sphygmomanomètre inventé par le médecin italien Scipione Riva-Rocci pour mesurer la tension artérielle.
+Henry Koplik décrit le signe de Koplik, signe précoce caractéristique de la rougeole.
+Le docteur Fernand Widal développe une technique de diagnostic de la fièvre typhoïde (test de Widal).
+Première description du syndrome de Marfan.
+Le psychiatre autrichien Richard von Krafft-Ebing emploie dans la dixième édition de son ouvrage Psychopathia sexualis l’expression latine pædophilia erotica pour désigner la  « pédophilie érotique ».</t>
         </is>
       </c>
     </row>
@@ -536,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1896_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1896_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,13 +561,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publication</t>
+          <t>Événements</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Jean Crocq : Les névroses traumatiques. Étude pathologique et clinique .
-Havelock Ellis (1859-1939) publie Das konträre Geschlechtsgefühl, un des premiers ouvrages à aborder l'homosexualité sans en faire une maladie[15],[16].</t>
+          <t>Épidémies et catastrophes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Été : une vague de chaleur de dix jours atteint New York, tuant près de 1 500 personnes. Theodore Roosevelt, alors maire de la ville, fait distribuer de la glace aux pauvres.
+Fièvre jaune à Cuba. L'hôpital espagnol de La Havane a plus de cent patients : « personne n'allait jamais mieux, on commençait par se replier, et quand les pieds et la tête se touchaient, c'était la mort ».
+Fin de l'épidémie de choléra en Hongrie.</t>
         </is>
       </c>
     </row>
@@ -567,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1896_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1896_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +599,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publication</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean Crocq : Les névroses traumatiques. Étude pathologique et clinique .
+Havelock Ellis (1859-1939) publie Das konträre Geschlechtsgefühl, un des premiers ouvrages à aborder l'homosexualité sans en faire une maladie,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1896_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1896_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Médailles de la Royal Society
 Médaille Copley : Karl Gegenbaur (1826-1903), anatomiste allemand, pour ses recherches en anatomie comparée dans toutes les branches du règne animal.
@@ -594,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1896_en_sant%C3%A9_et_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1896_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/1896_en_sant%C3%A9_et_m%C3%A9decine</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>19 juillet :
 Stafford L. Warren (mort en 1981), radiologue américain, inventeur de la mammographie.
@@ -626,38 +680,40 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1896_en_sant%C3%A9_et_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1896_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/1896_en_sant%C3%A9_et_m%C3%A9decine</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>25 juin : Samuel Leonard Tilley (né en 1818), pharmacien et homme politique canadien, un des pères de la Confédération canadienne.
 18 juillet : Joséphine Rostkowska (née en 1784), médecin militaire polonaise.
-26 novembre : Emil du Bois-Reymond, médecin allemand, fondateur de l'électrophysiologie[17].
+26 novembre : Emil du Bois-Reymond, médecin allemand, fondateur de l'électrophysiologie.
 Sans date
 Gilbert Déclat (né en 1827), médecin français, pionnier de l'usage du phénol pour la désinfection.
-H. H. Holmes, médecin américain, tueur en série[18].</t>
+H. H. Holmes, médecin américain, tueur en série.</t>
         </is>
       </c>
     </row>
